--- a/src/Test.xlsx
+++ b/src/Test.xlsx
@@ -19,20 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Возраст</t>
   </si>
   <si>
-    <t>Тип жителя</t>
-  </si>
-  <si>
-    <t>Численность населения</t>
-  </si>
-  <si>
-    <t>Количество смертей</t>
-  </si>
-  <si>
     <t>До 15</t>
   </si>
   <si>
@@ -46,6 +37,33 @@
   </si>
   <si>
     <t>50 и ст.</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>Смертность</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Численность</t>
+  </si>
+  <si>
+    <t>Смертей</t>
   </si>
 </sst>
 </file>
@@ -366,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,104 +396,143 @@
     <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="3">
+        <v>9795</v>
+      </c>
+      <c r="D3" s="3">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10269</v>
+      </c>
+      <c r="D4" s="3">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3716</v>
+      </c>
+      <c r="D5" s="3">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C6" s="3">
+        <v>22651</v>
+      </c>
+      <c r="D6" s="3">
+        <v>369</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>29386</v>
+      </c>
+      <c r="D7" s="3">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
-        <v>9795</v>
-      </c>
-      <c r="D2" s="3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10269</v>
-      </c>
-      <c r="D3" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3716</v>
-      </c>
-      <c r="D4" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>22651</v>
-      </c>
-      <c r="D5" s="3">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>29386</v>
-      </c>
-      <c r="D6" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>9183</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>187</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
